--- a/documentos/ciclo1/Claudia Vargas/TASK_claudia.xlsx
+++ b/documentos/ciclo1/Claudia Vargas/TASK_claudia.xlsx
@@ -460,12 +460,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -481,12 +517,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -501,48 +543,6 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -864,17 +864,17 @@
     <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -883,192 +883,192 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="37">
         <v>41719</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="E5" s="33">
+        <v>1</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
       <c r="N13" s="1" t="s">
         <v>60</v>
       </c>
@@ -1077,14 +1077,14 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="10">
         <v>2</v>
       </c>
       <c r="E14" s="9">
@@ -1118,20 +1118,20 @@
       <c r="M14" s="9">
         <v>1</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="19">
         <v>10</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="20">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="10">
         <v>1</v>
       </c>
       <c r="E15" s="9">
@@ -1165,20 +1165,20 @@
       <c r="M15" s="9">
         <v>1</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="19">
         <v>5</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="10">
         <v>0.5</v>
       </c>
       <c r="E16" s="9">
@@ -1212,22 +1212,22 @@
       <c r="M16" s="9">
         <v>1</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="19">
         <v>2.5</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="20">
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="10">
         <v>1</v>
       </c>
       <c r="E17" s="9">
@@ -1251,30 +1251,30 @@
         <v>14.899999999999999</v>
       </c>
       <c r="K17" s="9">
-        <f>(G17*N17)/O17</f>
+        <f t="shared" ref="K17:K25" si="2">(G17*N17)/O17</f>
         <v>1.4</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="20">
         <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M17" s="9">
         <v>3</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="19">
         <v>7</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="10">
         <v>0.5</v>
       </c>
       <c r="E18" s="9">
@@ -1297,31 +1297,31 @@
       <c r="J18" s="9">
         <v>18.599999999999998</v>
       </c>
-      <c r="K18" s="37">
-        <f>(G18*N18)/O18</f>
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="L18" s="37">
+      <c r="K18" s="20">
+        <f>(D18*N18)/O18</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="L18" s="20">
         <f t="shared" si="1"/>
-        <v>5.3272727272727272</v>
+        <v>4.963636363636363</v>
       </c>
       <c r="M18" s="9">
         <v>3</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="19">
         <v>4</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="20">
         <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="10">
         <v>0.7</v>
       </c>
       <c r="E19" s="9">
@@ -1344,33 +1344,33 @@
       <c r="J19" s="9">
         <v>19.099999999999998</v>
       </c>
-      <c r="K19" s="37">
-        <f>(G19*N19)/O19</f>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="L19" s="37">
+      <c r="K19" s="20">
+        <f t="shared" ref="K19:K24" si="3">(D19*N19)/O19</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="20">
         <f t="shared" si="1"/>
-        <v>8.1844155844155839</v>
+        <v>5.963636363636363</v>
       </c>
       <c r="M19" s="9">
         <v>3</v>
       </c>
-      <c r="N19" s="36">
-        <v>1</v>
-      </c>
-      <c r="O19" s="37">
+      <c r="N19" s="19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="20">
         <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="10">
         <v>0.5</v>
       </c>
       <c r="E20" s="9">
@@ -1393,31 +1393,31 @@
       <c r="J20" s="9">
         <v>21.099999999999998</v>
       </c>
-      <c r="K20" s="37">
-        <f>(G20*N20)/O20</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L20" s="37">
+      <c r="K20" s="20">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L20" s="20">
         <f t="shared" si="1"/>
-        <v>8.85108225108225</v>
+        <v>6.296969696969696</v>
       </c>
       <c r="M20" s="9">
         <v>3</v>
       </c>
-      <c r="N20" s="36">
+      <c r="N20" s="19">
         <v>2</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="10">
         <v>0.2</v>
       </c>
       <c r="E21" s="9">
@@ -1440,31 +1440,31 @@
       <c r="J21" s="9">
         <v>23.599999999999998</v>
       </c>
-      <c r="K21" s="37">
-        <f>(G21*N21)/O21</f>
-        <v>0.86956521739130443</v>
-      </c>
-      <c r="L21" s="37">
+      <c r="K21" s="20">
+        <f t="shared" si="3"/>
+        <v>0.17391304347826089</v>
+      </c>
+      <c r="L21" s="20">
         <f t="shared" si="1"/>
-        <v>9.7206474684735547</v>
+        <v>6.4708827404479567</v>
       </c>
       <c r="M21" s="9">
         <v>3</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="19">
         <v>2</v>
       </c>
-      <c r="O21" s="37">
+      <c r="O21" s="20">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="10">
         <v>0.5</v>
       </c>
       <c r="E22" s="9">
@@ -1487,31 +1487,31 @@
       <c r="J22" s="9">
         <v>25.599999999999998</v>
       </c>
-      <c r="K22" s="37">
-        <f>(G22*N22)/O22</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L22" s="37">
+      <c r="K22" s="20">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L22" s="20">
         <f t="shared" si="1"/>
-        <v>10.387314135140221</v>
+        <v>6.8042160737812898</v>
       </c>
       <c r="M22" s="9">
         <v>3</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="19">
         <v>2</v>
       </c>
-      <c r="O22" s="37">
+      <c r="O22" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="10">
         <v>1</v>
       </c>
       <c r="E23" s="9">
@@ -1534,31 +1534,31 @@
       <c r="J23" s="9">
         <v>27.099999999999998</v>
       </c>
-      <c r="K23" s="37">
-        <f>(G23*N23)/O23</f>
-        <v>4.0909090909090917</v>
-      </c>
-      <c r="L23" s="37">
+      <c r="K23" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3636363636363638</v>
+      </c>
+      <c r="L23" s="20">
         <f t="shared" si="1"/>
-        <v>14.478223226049312</v>
+        <v>8.167852437417654</v>
       </c>
       <c r="M23" s="9">
         <v>3</v>
       </c>
-      <c r="N23" s="36">
-        <v>3</v>
-      </c>
-      <c r="O23" s="37">
+      <c r="N23" s="19">
+        <v>3</v>
+      </c>
+      <c r="O23" s="20">
         <v>2.1999999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="10">
         <v>0.2</v>
       </c>
       <c r="E24" s="9">
@@ -1581,31 +1581,31 @@
       <c r="J24" s="9">
         <v>28.999999999999996</v>
       </c>
-      <c r="K24" s="37">
-        <f>(G24*N24)/O24</f>
-        <v>2.1428571428571423</v>
-      </c>
-      <c r="L24" s="37">
+      <c r="K24" s="20">
+        <f t="shared" si="3"/>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="L24" s="20">
         <f t="shared" si="1"/>
-        <v>16.621080368906455</v>
+        <v>8.3821381517033675</v>
       </c>
       <c r="M24" s="9">
         <v>3</v>
       </c>
-      <c r="N24" s="36">
-        <v>3</v>
-      </c>
-      <c r="O24" s="37">
+      <c r="N24" s="19">
+        <v>3</v>
+      </c>
+      <c r="O24" s="20">
         <v>2.8000000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="10">
         <v>3</v>
       </c>
       <c r="E25" s="9">
@@ -1628,31 +1628,31 @@
       <c r="J25" s="9">
         <v>39</v>
       </c>
-      <c r="K25" s="37">
-        <f>(G25*N25)/O25</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L25" s="37">
+      <c r="K25" s="20">
+        <f>(D25*N25)/O25</f>
+        <v>2.4</v>
+      </c>
+      <c r="L25" s="20">
         <f t="shared" si="1"/>
-        <v>17.287747035573123</v>
+        <v>10.782138151703368</v>
       </c>
       <c r="M25" s="9">
         <v>3</v>
       </c>
-      <c r="N25" s="36">
-        <v>2</v>
-      </c>
-      <c r="O25" s="37">
+      <c r="N25" s="19">
+        <v>12</v>
+      </c>
+      <c r="O25" s="20">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="10">
         <v>2</v>
       </c>
       <c r="E26" s="9">
@@ -1676,18 +1676,18 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="37">
+      <c r="N26" s="19"/>
+      <c r="O26" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="10">
         <v>0.5</v>
       </c>
       <c r="E27" s="9">
@@ -1711,19 +1711,19 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="O27" s="37">
+      <c r="O27" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="10">
         <v>1</v>
       </c>
       <c r="E28" s="9">
@@ -1747,17 +1747,17 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="O28" s="37">
+      <c r="O28" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="7"/>
       <c r="C29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="10">
         <v>1</v>
       </c>
       <c r="E29" s="9">
@@ -1781,17 +1781,17 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="37">
+      <c r="O29" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="7"/>
       <c r="C30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="10">
         <v>0.5</v>
       </c>
       <c r="E30" s="9">
@@ -1815,17 +1815,17 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="O30" s="37">
+      <c r="O30" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="7"/>
       <c r="C31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="10">
         <v>1</v>
       </c>
       <c r="E31" s="9">
@@ -1847,17 +1847,17 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="O31" s="37">
+      <c r="O31" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="7"/>
       <c r="C32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="10">
         <v>5</v>
       </c>
       <c r="E32" s="9">
@@ -1881,17 +1881,17 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="O32" s="37">
+      <c r="O32" s="20">
         <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="7"/>
       <c r="C33" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="10">
         <v>1</v>
       </c>
       <c r="E33" s="9">
@@ -1911,17 +1911,17 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="O33" s="37">
+      <c r="O33" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="7"/>
       <c r="C34" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="10">
         <v>0.5</v>
       </c>
       <c r="E34" s="9">
@@ -1945,19 +1945,19 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="O34" s="37">
+      <c r="O34" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="10">
         <v>1</v>
       </c>
       <c r="E35" s="9">
@@ -1981,17 +1981,17 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="O35" s="37">
+      <c r="O35" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="10">
         <v>1</v>
       </c>
       <c r="E36" s="9">
@@ -2011,17 +2011,17 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="O36" s="37">
+      <c r="O36" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="7"/>
       <c r="C37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="10">
         <v>2</v>
       </c>
       <c r="E37" s="9">
@@ -2045,19 +2045,19 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-      <c r="O37" s="37">
+      <c r="O37" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="10">
         <v>1</v>
       </c>
       <c r="E38" s="9">
@@ -2081,30 +2081,30 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="O38" s="37">
+      <c r="O38" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="10">
         <v>1.5</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" si="0"/>
         <v>30.1</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="13">
         <v>5</v>
       </c>
-      <c r="H39" s="31"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="9">
         <f>ROUND(D39/D40*100,1)</f>
         <v>5</v>
@@ -2113,51 +2113,35 @@
         <v>99.999999999999986</v>
       </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="O39" s="37">
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="O39" s="20">
         <v>7.5</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="34">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="17">
         <f>SUM(D14:D39)</f>
         <v>30.1</v>
       </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="35"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="9">
         <f>SUM(I14:I39)</f>
         <v>99.999999999999986</v>
       </c>
-      <c r="J40" s="35"/>
+      <c r="J40" s="18"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E8:E13"/>
@@ -2174,6 +2158,22 @@
     <mergeCell ref="I8:I13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentos/ciclo1/Claudia Vargas/TASK_claudia.xlsx
+++ b/documentos/ciclo1/Claudia Vargas/TASK_claudia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="19440" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="19440" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -493,15 +493,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -511,12 +532,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -528,21 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,12 +869,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -883,192 +883,192 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="35"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="28">
         <v>41719</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="33">
-        <v>1</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="24" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="24" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="1" t="s">
         <v>60</v>
       </c>
@@ -1077,7 +1077,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="29" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="4"/>
@@ -1108,12 +1108,12 @@
         <f>I14</f>
         <v>6.6</v>
       </c>
-      <c r="K14" s="9">
-        <v>1.8</v>
+      <c r="K14" s="20">
+        <v>2</v>
       </c>
       <c r="L14" s="9">
         <f>K14</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M14" s="9">
         <v>1</v>
@@ -1126,7 +1126,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
         <v>25</v>
@@ -1155,8 +1155,8 @@
         <f>SUM(I15+J14)</f>
         <v>9.8999999999999986</v>
       </c>
-      <c r="K15" s="9">
-        <v>1.2</v>
+      <c r="K15" s="20">
+        <v>1</v>
       </c>
       <c r="L15" s="9">
         <f>K15+L14</f>
@@ -1173,7 +1173,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>26</v>
@@ -1202,12 +1202,12 @@
         <f>SUM(I16+J15)</f>
         <v>11.599999999999998</v>
       </c>
-      <c r="K16" s="9">
-        <v>0.2</v>
+      <c r="K16" s="20">
+        <v>0.5</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" ref="L16:L25" si="1">K16+L15</f>
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M16" s="9">
         <v>1</v>
@@ -1220,7 +1220,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="29" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="7"/>
@@ -1251,12 +1251,12 @@
         <v>14.899999999999999</v>
       </c>
       <c r="K17" s="9">
-        <f t="shared" ref="K17:K25" si="2">(G17*N17)/O17</f>
+        <f t="shared" ref="K17" si="2">(G17*N17)/O17</f>
         <v>1.4</v>
       </c>
       <c r="L17" s="20">
         <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M17" s="9">
         <v>3</v>
@@ -1269,7 +1269,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
         <v>28</v>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="L18" s="20">
         <f t="shared" si="1"/>
-        <v>4.963636363636363</v>
+        <v>5.2636363636363637</v>
       </c>
       <c r="M18" s="9">
         <v>3</v>
@@ -1316,7 +1316,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5" t="s">
         <v>48</v>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="L19" s="20">
         <f t="shared" si="1"/>
-        <v>5.963636363636363</v>
+        <v>6.2636363636363637</v>
       </c>
       <c r="M19" s="9">
         <v>3</v>
@@ -1363,7 +1363,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="7"/>
@@ -1399,7 +1399,7 @@
       </c>
       <c r="L20" s="20">
         <f t="shared" si="1"/>
-        <v>6.296969696969696</v>
+        <v>6.5969696969696967</v>
       </c>
       <c r="M20" s="9">
         <v>3</v>
@@ -1412,7 +1412,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
         <v>30</v>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="L21" s="20">
         <f t="shared" si="1"/>
-        <v>6.4708827404479567</v>
+        <v>6.7708827404479575</v>
       </c>
       <c r="M21" s="9">
         <v>3</v>
@@ -1459,7 +1459,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5" t="s">
         <v>49</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="L22" s="20">
         <f t="shared" si="1"/>
-        <v>6.8042160737812898</v>
+        <v>7.1042160737812905</v>
       </c>
       <c r="M22" s="9">
         <v>3</v>
@@ -1506,7 +1506,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
         <v>31</v>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="L23" s="20">
         <f t="shared" si="1"/>
-        <v>8.167852437417654</v>
+        <v>8.4678524374176547</v>
       </c>
       <c r="M23" s="9">
         <v>3</v>
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
         <v>32</v>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="L24" s="20">
         <f t="shared" si="1"/>
-        <v>8.3821381517033675</v>
+        <v>8.6821381517033682</v>
       </c>
       <c r="M24" s="9">
         <v>3</v>
@@ -1600,7 +1600,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5" t="s">
         <v>33</v>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="L25" s="20">
         <f t="shared" si="1"/>
-        <v>10.782138151703368</v>
+        <v>11.082138151703369</v>
       </c>
       <c r="M25" s="9">
         <v>3</v>
@@ -1647,7 +1647,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5" t="s">
         <v>50</v>
@@ -1682,7 +1682,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5" t="s">
         <v>51</v>
@@ -1716,7 +1716,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="29" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="7"/>
@@ -1752,7 +1752,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="7"/>
       <c r="C29" s="5" t="s">
         <v>53</v>
@@ -1786,7 +1786,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="7"/>
       <c r="C30" s="5" t="s">
         <v>34</v>
@@ -1820,7 +1820,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="7"/>
       <c r="C31" s="5" t="s">
         <v>54</v>
@@ -1852,7 +1852,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="7"/>
       <c r="C32" s="5" t="s">
         <v>35</v>
@@ -1886,7 +1886,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="7"/>
       <c r="C33" s="5" t="s">
         <v>55</v>
@@ -1916,7 +1916,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="7"/>
       <c r="C34" s="5" t="s">
         <v>56</v>
@@ -1950,7 +1950,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="29" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="7"/>
@@ -1986,7 +1986,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
         <v>57</v>
@@ -2016,7 +2016,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="7"/>
       <c r="C37" s="5" t="s">
         <v>58</v>
@@ -2050,7 +2050,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="7"/>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12" t="s">
         <v>38</v>
@@ -2142,6 +2142,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="G8:G13"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E8:E13"/>
@@ -2158,22 +2174,6 @@
     <mergeCell ref="I8:I13"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
